--- a/notes/away_values.xlsx
+++ b/notes/away_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\msc-project\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1759CDF6-7009-4CF3-81C4-4B39A7F7B5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5327DE-5322-4FB0-9197-06A312C0E11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46360CCD-BC0D-4F97-84F8-02BFD1CBA3A6}"/>
   </bookViews>
@@ -166,10 +166,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE767DB-6311-41E6-B1A6-123550BE1004}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,15 +504,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -538,10 +538,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3">
@@ -561,8 +561,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3">
@@ -582,8 +582,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3">
@@ -603,8 +603,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3">
@@ -624,8 +624,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3">
@@ -645,480 +645,480 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>0.998</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.998</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.23899999999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>-0.185</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>-0.1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>-0.106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>-0.185</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>-0.251</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>-0.252</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-0.252</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>-0.25600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>-0.36899999999999999</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>-0.36799999999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>-0.373</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>-0.373</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>-0.36899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>0.96499999999999997</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.99299999999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.99</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>0.114</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.151</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.155</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.156</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0.153</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>-0.20599999999999999</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>-0.27700000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>-0.998</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>-0.99199999999999999</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>-0.99399999999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>-0.99299999999999999</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>0.95099999999999996</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.99199999999999999</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>0.999</v>
       </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>0.109</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.123</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0.127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>-1</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>-0.999</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>-0.99299999999999999</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>-0.99299999999999999</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
         <v>0.995</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0.995</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>0.37</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.36299999999999999</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.377</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.378</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.371</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>-6.2E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>0.97099999999999997</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>0.99299999999999999</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.98899999999999999</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>-0.28100000000000003</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>-0.28299999999999997</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>-0.28399999999999997</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>-0.28100000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
